--- a/datasets/happy_data.xlsx
+++ b/datasets/happy_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73cfeb0658430f91/PBL 2 Project/Project/MUSIC-RECOMMENDATION-SYSTEM/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73cfeb0658430f91/_My/emotion-based-music-recommendation-system/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A5668B69-75ED-4977-86CB-3EB7F924E0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86CDC07A-19A0-4F1B-B709-5BBA623EC972}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{A5668B69-75ED-4977-86CB-3EB7F924E0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7153CEFF-49E2-4243-A540-CFA071DE8415}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3630" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="169">
   <si>
     <t>name</t>
   </si>
@@ -217,21 +217,6 @@
     <t>Jhak Maar Ke</t>
   </si>
   <si>
-    <t>dancebility</t>
-  </si>
-  <si>
-    <t>0.57 to 0.86</t>
-  </si>
-  <si>
-    <t>0.4 to 1</t>
-  </si>
-  <si>
-    <t>acoustic</t>
-  </si>
-  <si>
-    <t>-10.4 to -3</t>
-  </si>
-  <si>
     <t>Bahara</t>
   </si>
   <si>
@@ -545,15 +530,6 @@
   </si>
   <si>
     <t>Jashn-E-Bahaaraa</t>
-  </si>
-  <si>
-    <t>0.25 to 1</t>
-  </si>
-  <si>
-    <t>0 to 0.75</t>
-  </si>
-  <si>
-    <t>76 to 170</t>
   </si>
 </sst>
 </file>
@@ -662,1897 +638,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tempo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$2:$B$202</c:f>
-              <c:strCache>
-                <c:ptCount val="176"/>
-                <c:pt idx="0">
-                  <c:v>Love You Zindagi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tere Pyaar Mein</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Malang Sajna</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Kudi Nu Nachne De (From "Angrezi Medium")</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Deva Deva (From "Brahmastra")</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Halka Halka (From "Fanney Khan")</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Buddhu Sa Mann</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kon Disa Mein - Trending</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>I Feel Good</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Jehda Nasha (From "An Action Hero")</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Mileya Mileya</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Ghar Nahi Jaana (From "Gumraah")</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Maan Meri Jaan</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Mere Liye Tum Kaafi Ho</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Saibo</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Dildaara (Stand By Me)</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Ilahi (Reprise)</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Ik Vaari Aa</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Rang Lageya Chill Flip</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Aaj Kal</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Jaadui (From "Tu Jhoothi Main Makkaar")</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Lagdi Lahore Di</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Jugnu</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Daaru Desi</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Kesariya (From "Brahmastra")</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Ek Zindagi (From "Angrezi Medium")</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Bom Diggy</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Wakhra Swag</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Jhoom - R&amp;B Mix</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Gallan Goodiyaan</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Kya Karoon?</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Liggi</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Tum Mile - Lofi Flip</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Ghungroo (From "War")</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Zindagi Aa Raha Hoon Main</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Matargashti</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Gulabi</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Jiya Re</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Pasoori</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Haaye Oye (feat. Ash King)</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Tum Hi Ho Bandhu</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Uff Teri Adaa</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Ik Junoon (Paint It Red)</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Chor Bazaari</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>Sooraj Ki Baahon Mein</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>Raat Bhar</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>Befikra</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>Jaane Kyun</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>Offo</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>Bahara</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Bin Tere</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>Pani Da Rang - Male Vocals</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>Tum Hi Ho Bandhu</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>Chaiyya Chaiyya (From "Dil Se")</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>Dance Basanti</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>Nagada Sang Dhol</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>Jab Se Tere Naina</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>Kar Gayi Chull</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>Bahara - Chill Version</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>Kamariya</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>Cutiepie (From "Ae Dil Hai Mushkil")</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>Bom Diggy</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>Lamberghini</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>Chogada</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>Let's Nacho</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>The Breakup Song (From "Ae Dil Hai Mushkil")</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>Channa Mereya (From "Ae Dil Hai Mushkil")</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>High Rated Gabru (From "Nawabzaade")</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>Iktara (From "Wake Up Sid")</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>Sajdaa</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>Ishq Wala Love</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>Mitwa</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>Pretty Woman</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>Halka Halka (From "Fanney Khan")</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>Main Rang Sharbaton Ka - Reprise</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>Cheez Badi (From "Machine")</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>Kala Chasma</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>Gal Mitthi Mitthi</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>Shukran Allah</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>Buddhu Sa Mann</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>I Hate Luv Storys</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>Banno</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>Dil Se Re</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>Saiyyan</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>Kabira</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>Aankh Marey</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>Ek Ladki Ko Dekha Toh Aisa Laga - Title Track</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>Baby Doll (From "Ragini Mms 2")</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>Dhating Naach</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>Navrai Maajhi</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>Morni Banke (From "Badhaai Ho")</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>Gallan Goodiyaan</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>Jabra Fan - Hindi Version</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>Sadi Gali</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>Badtameez Dil</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>Gud Naal Ishq Mitha</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>Iski Uski</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>Subhanallah</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>Afghan Jalebi (Film Version)</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>Titli</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>Ambarsariya</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>Matargashti</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>Jhak Maar Ke</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>Sooraj Ki Baahon Mein</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>Kabhi Kabhi Aditi</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>Pareshaan</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>Viva La Vida / Jashn-e-Bahara</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>Heartless / Kabhi Kabhi</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>Bahara</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>Leja Re</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>Zehnaseeb</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>Saibo</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>Saturday Saturday</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>Badri Ki Dulhania (Title Track)</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>Tamma Tamma Again</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>Milegi Milegi (From "Stree")</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>Hungamaa Ho Gaya</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>Jagaao Mere Des Ko</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>Suno Aisha</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>Vaaste</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>Saibo</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>Mera Mann Kehne Laga</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>Liggi</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>Tum Jab Paas</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>Maahi Ve</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>Mann Mera</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>Aabaad Barbaad</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>Hardum Humdum</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>Khaab</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>Humraah (From "Malang - Unleash The Madness")</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>Aashiq Tera</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>Barbaadiyan</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>Nit Nit</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>Love You Zindagi - Club Mix</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>Tum Hi Ho Bandhu</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>Shaitan Ka Saala (From "Housefull 4")</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>Blue Hai Pani - Pani</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>Sawaar Loon</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>Galti Se Mistake (From "Jagga Jasoos")</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>Hawa Hawai 2.0 (From "Tumhari Sulu")</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>Abhi Toh Party Shuru Hui Hai (From "Khoobsurat")</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>Kamariya</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>Lazy Lad</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>Malang Sajna</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>Raabta</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>Ghodey Pe Sawaar (From "Qala")</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>Ranjha (From "Shershaah")</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>Raataan Lambiyan (From "Shershaah")</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>Maahi Ve</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>Pehla Pyaar</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>Pyaar Hota Kayi Baar Hai (From "Tu Jhoothi Main Makkaar")</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>Tere Pyaar Mein</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>Baarish Ki Jaaye</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>Pee Loon</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>Mast Magan (From "2 States")</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>Kabira (Encore)</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>Subhanallah</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>Tum Se Hi</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>Tose Naina (From "Mickey Virus)</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>Saibo</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>Roke Na Ruke Naina (From "Badrinath Ki Dulhania")</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>Gazab Ka Hai Din (From "Dil Juunglee")</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>Afeemi (From "Meri Pyaari Bindu ")</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>Rozana</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>Saware (From "Phantom")</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>Phir Kabhi (From "M.S.Dhoni - The Untold Story")</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>Naina</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>Khuda Jaane</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>Tum Ho</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>Tum Mile - Love Reprise</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>Tum Tak</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>Pehli Nazar Mein</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>Mere Bina</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>Ishq Hua</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>Jashn-E-Bahaaraa</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>Mera Mann Kehne Laga</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$M$2:$M$202</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="176"/>
-                <c:pt idx="0">
-                  <c:v>110.01900000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>118.94499999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>113.943</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>117.949</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>112.062</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>127.985</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>125.998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>169.93199999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>125.974</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>119.965</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125.003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>123.996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>95.867999999999995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>177.86699999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>90.058000000000007</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>100.01300000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>131.90299999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>127.965</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>104.994</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>171.964</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>102.973</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>95.013999999999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>124.961</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>94.013999999999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>94.009</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>110.027</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>103.956</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>79.962000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>79.971999999999994</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>119.974</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>98.013999999999996</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>102.04600000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>114.96</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>118.03400000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>100.02200000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>124.002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>106.012</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>91.991</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>123.959</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>134.994</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>132.03200000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>127.03400000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>100.014</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>124.922</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>129.96899999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>137.06</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>99.962000000000003</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>130.03100000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>87.834000000000003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>139.83099999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>98.031000000000006</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>134.994</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>90.012</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>103.035</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>113.3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>79.968000000000004</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>121.99</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>87.965999999999994</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>62.481000000000002</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>127.999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>103.956</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>103.98099999999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>62.914000000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>130.04300000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>113.988</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>90.066000000000003</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>97.929000000000002</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>79.975999999999999</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>79.545000000000002</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>135.041</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>107.10299999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>173.99100000000001</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>127.985</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>90.007000000000005</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>97.007999999999996</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>105.97499999999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>129.946</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>116.15300000000001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>125.998</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>130.012</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>108.01300000000001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>105.986</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>74.653000000000006</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84.027000000000001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>129.999</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>173.95500000000001</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>103.992</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>152.71700000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>120.038</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>95.006</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>119.974</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>95.84</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>129.989</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>106.021</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>97.97</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>135.011</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>88.903999999999996</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>118.00700000000001</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>81.012</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>180.071</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>100.02200000000001</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>95.04</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>124.922</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>95.076999999999998</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>149.839</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>141.11500000000001</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>89.881</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>87.578999999999994</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>100.03100000000001</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>78.028999999999996</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>90.058000000000007</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>130.02000000000001</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>128.03899999999999</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>123.02</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>125.991</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>138.05799999999999</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>125.994</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>105.003</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>89.891999999999996</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>90.058000000000007</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>74.977000000000004</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>102.04600000000001</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>122.1</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>130.995</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>191.88800000000001</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>118.001</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>116.94199999999999</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>80.009</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>155.86699999999999</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>114.93600000000001</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>126.96599999999999</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>176.01900000000001</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>128.04</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>134.994</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>100.008</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>129.99</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>111.935</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>195.05699999999999</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>102.982</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>129.99799999999999</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>96.986999999999995</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>125.944</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>113.943</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>118.03700000000001</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>102.003</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>82.941000000000003</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>81.009</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>99.989000000000004</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>124.86799999999999</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>122.024</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>118.94499999999999</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>157.48699999999999</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>83.95</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>82.995000000000005</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>171.84100000000001</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>88.903999999999996</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>130.01499999999999</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>139.88499999999999</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>90.058000000000007</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>80.656999999999996</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>170.376</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>87.984999999999999</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>92.981999999999999</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>134.94999999999999</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>81.921000000000006</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>159.99600000000001</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>78.936000000000007</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>93.894999999999996</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>114.91500000000001</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>114.98699999999999</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>169.702</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>79.923000000000002</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>87.451999999999998</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>137.864</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>74.977000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-65FC-4900-A99F-0B108597B642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="185942944"/>
-        <c:axId val="185943360"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="185942944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185943360"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="185943360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="185942944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>41313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>63462</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB22DAA-A677-4866-9D21-CFB02BE13529}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2844,7 +929,7 @@
   <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2944,12 +1029,6 @@
       <c r="M2">
         <v>110.01900000000001</v>
       </c>
-      <c r="Q2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" t="s">
-        <v>65</v>
-      </c>
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -2991,12 +1070,6 @@
       </c>
       <c r="M3">
         <v>118.94499999999999</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" t="s">
-        <v>66</v>
       </c>
       <c r="T3" s="5"/>
     </row>
@@ -3040,12 +1113,7 @@
       <c r="M4">
         <v>113.943</v>
       </c>
-      <c r="Q4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="R4" s="7"/>
       <c r="T4" s="5"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -3088,12 +1156,7 @@
       <c r="M5">
         <v>117.949</v>
       </c>
-      <c r="Q5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" t="s">
-        <v>175</v>
-      </c>
+      <c r="Q5" s="6"/>
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -3136,12 +1199,7 @@
       <c r="M6">
         <v>112.062</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q6" s="5"/>
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -3184,12 +1242,7 @@
       <c r="M7">
         <v>127.985</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="R7" t="s">
-        <v>176</v>
-      </c>
+      <c r="Q7" s="5"/>
       <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -4960,7 +3013,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C51">
         <v>0.59499999999999997</v>
@@ -5001,7 +3054,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C52">
         <v>0.58499999999999996</v>
@@ -5042,7 +3095,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C53">
         <v>0.441</v>
@@ -5124,7 +3177,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C55">
         <v>0.78600000000000003</v>
@@ -5165,7 +3218,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C56">
         <v>0.83299999999999996</v>
@@ -5206,7 +3259,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C57">
         <v>0.74299999999999999</v>
@@ -5247,7 +3300,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C58">
         <v>0.59899999999999998</v>
@@ -5288,7 +3341,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C59">
         <v>0.82699999999999996</v>
@@ -5329,7 +3382,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C60">
         <v>0.65700000000000003</v>
@@ -5370,7 +3423,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C61">
         <v>0.33700000000000002</v>
@@ -5411,7 +3464,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C62">
         <v>0.79900000000000004</v>
@@ -5493,7 +3546,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C64">
         <v>0.95699999999999996</v>
@@ -5534,7 +3587,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C65">
         <v>0.35899999999999999</v>
@@ -5575,7 +3628,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C66">
         <v>0.74199999999999999</v>
@@ -5616,7 +3669,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C67">
         <v>0.81799999999999995</v>
@@ -5657,7 +3710,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C68">
         <v>0.47599999999999998</v>
@@ -5698,7 +3751,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C69">
         <v>0.68500000000000005</v>
@@ -5739,7 +3792,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C70">
         <v>0.61599999999999999</v>
@@ -5780,7 +3833,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C71">
         <v>0.46899999999999997</v>
@@ -5821,7 +3874,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C72">
         <v>0.71099999999999997</v>
@@ -5862,7 +3915,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C73">
         <v>0.63</v>
@@ -5903,7 +3956,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C74">
         <v>0.67700000000000005</v>
@@ -5985,7 +4038,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C76">
         <v>0.63700000000000001</v>
@@ -6026,7 +4079,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C77">
         <v>0.70399999999999996</v>
@@ -6067,7 +4120,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C78">
         <v>0.83</v>
@@ -6108,7 +4161,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C79">
         <v>0.90600000000000003</v>
@@ -6187,7 +4240,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C81">
         <v>0.432</v>
@@ -6269,7 +4322,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C83">
         <v>0.747</v>
@@ -6310,7 +4363,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C84">
         <v>0.75700000000000001</v>
@@ -6351,7 +4404,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C85">
         <v>0.84399999999999997</v>
@@ -6392,7 +4445,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C86">
         <v>0.47299999999999998</v>
@@ -6433,7 +4486,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C87">
         <v>0.59</v>
@@ -6474,7 +4527,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C88">
         <v>0.79600000000000004</v>
@@ -6515,7 +4568,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C89">
         <v>0.53200000000000003</v>
@@ -6556,7 +4609,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C90">
         <v>0.83599999999999997</v>
@@ -6597,7 +4650,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C91">
         <v>0.79400000000000004</v>
@@ -6638,7 +4691,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C92">
         <v>0.9</v>
@@ -6679,7 +4732,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C93">
         <v>0.81599999999999995</v>
@@ -6761,7 +4814,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C95">
         <v>0.82699999999999996</v>
@@ -6802,7 +4855,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C96">
         <v>0.72599999999999998</v>
@@ -6843,7 +4896,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C97">
         <v>0.80600000000000005</v>
@@ -6884,7 +4937,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C98">
         <v>0.79</v>
@@ -6925,7 +4978,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C99">
         <v>0.76100000000000001</v>
@@ -6966,7 +5019,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C100">
         <v>0.30199999999999999</v>
@@ -7007,7 +5060,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C101">
         <v>0.84</v>
@@ -7086,7 +5139,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C103">
         <v>0.67900000000000005</v>
@@ -7203,7 +5256,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C106">
         <v>0.64900000000000002</v>
@@ -7446,7 +5499,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C112">
         <v>0.44600000000000001</v>
@@ -7487,7 +5540,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C113">
         <v>0.45100000000000001</v>
@@ -7528,7 +5581,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C114">
         <v>0.47299999999999998</v>
@@ -7569,7 +5622,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C115">
         <v>0.44</v>
@@ -7610,7 +5663,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C116">
         <v>0.79100000000000004</v>
@@ -7651,7 +5704,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C117">
         <v>0.623</v>
@@ -7733,7 +5786,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C119">
         <v>0.84699999999999998</v>
@@ -7774,7 +5827,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C120">
         <v>0.75900000000000001</v>
@@ -7815,7 +5868,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C121">
         <v>0.72399999999999998</v>
@@ -7856,7 +5909,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C122">
         <v>0.84299999999999997</v>
@@ -7897,7 +5950,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C123">
         <v>0.625</v>
@@ -7938,7 +5991,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C124">
         <v>0.69499999999999995</v>
@@ -7979,7 +6032,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C125">
         <v>0.86199999999999999</v>
@@ -8020,7 +6073,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C126">
         <v>0.44400000000000001</v>
@@ -8140,7 +6193,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C129">
         <v>0.46</v>
@@ -8260,7 +6313,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C132">
         <v>0.751</v>
@@ -8339,7 +6392,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C134">
         <v>0.60399999999999998</v>
@@ -8380,7 +6433,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C135">
         <v>0.53400000000000003</v>
@@ -8421,7 +6474,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C136">
         <v>0.626</v>
@@ -8462,7 +6515,7 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C137">
         <v>0.59</v>
@@ -8503,7 +6556,7 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C138">
         <v>0.66200000000000003</v>
@@ -8585,7 +6638,7 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C140">
         <v>0.46</v>
@@ -8626,7 +6679,7 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C141">
         <v>0.75800000000000001</v>
@@ -8667,7 +6720,7 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C142">
         <v>0.442</v>
@@ -8746,7 +6799,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C144">
         <v>0.78200000000000003</v>
@@ -8828,7 +6881,7 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C146">
         <v>0.84399999999999997</v>
@@ -8869,7 +6922,7 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C147">
         <v>0.83699999999999997</v>
@@ -8910,7 +6963,7 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C148">
         <v>0.82</v>
@@ -8951,7 +7004,7 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C149">
         <v>0.44</v>
@@ -8992,7 +7045,7 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C150">
         <v>0.79400000000000004</v>
@@ -9033,7 +7086,7 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C151">
         <v>0.80600000000000005</v>
@@ -9074,7 +7127,7 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C152">
         <v>0.82499999999999996</v>
@@ -9343,7 +7396,7 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C159">
         <v>0.89600000000000002</v>
@@ -9463,7 +7516,7 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C162">
         <v>0.65700000000000003</v>
@@ -9504,7 +7557,7 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C163">
         <v>0.77700000000000002</v>
@@ -9545,7 +7598,7 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C164">
         <v>0.60299999999999998</v>
@@ -9586,7 +7639,7 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C165">
         <v>0.72</v>
@@ -9627,7 +7680,7 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C166">
         <v>0.81499999999999995</v>
@@ -9668,7 +7721,7 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C167">
         <v>0.60699999999999998</v>
@@ -9709,7 +7762,7 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C168">
         <v>0.77200000000000002</v>
@@ -9791,7 +7844,7 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C170">
         <v>0.52400000000000002</v>
@@ -9832,7 +7885,7 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C171">
         <v>0.65600000000000003</v>
@@ -9873,7 +7926,7 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C172">
         <v>0.65900000000000003</v>
@@ -9914,7 +7967,7 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C173">
         <v>0.61099999999999999</v>
@@ -9955,7 +8008,7 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C174">
         <v>0.30199999999999999</v>
@@ -9996,7 +8049,7 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C175">
         <v>0.60899999999999999</v>
@@ -10075,7 +8128,7 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C177">
         <v>0.52300000000000002</v>
@@ -10233,7 +8286,7 @@
         <v>185</v>
       </c>
       <c r="B181" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C181">
         <v>0.501</v>
@@ -10274,7 +8327,7 @@
         <v>186</v>
       </c>
       <c r="B182" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C182">
         <v>0.32500000000000001</v>
@@ -10391,7 +8444,7 @@
         <v>189</v>
       </c>
       <c r="B185" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C185">
         <v>0.58699999999999997</v>
@@ -10470,7 +8523,7 @@
         <v>191</v>
       </c>
       <c r="B187" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C187">
         <v>0.434</v>
@@ -10511,7 +8564,7 @@
         <v>192</v>
       </c>
       <c r="B188" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C188">
         <v>0.499</v>
@@ -10552,7 +8605,7 @@
         <v>193</v>
       </c>
       <c r="B189" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C189">
         <v>0.40500000000000003</v>
@@ -10593,7 +8646,7 @@
         <v>194</v>
       </c>
       <c r="B190" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C190">
         <v>0.495</v>
@@ -10634,7 +8687,7 @@
         <v>195</v>
       </c>
       <c r="B191" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C191">
         <v>0.38200000000000001</v>
@@ -10751,7 +8804,7 @@
         <v>198</v>
       </c>
       <c r="B194" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C194">
         <v>0.35599999999999998</v>
@@ -10792,7 +8845,7 @@
         <v>199</v>
       </c>
       <c r="B195" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C195">
         <v>0.58899999999999997</v>
@@ -10833,7 +8886,7 @@
         <v>200</v>
       </c>
       <c r="B196" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C196">
         <v>0.72</v>
@@ -10874,7 +8927,7 @@
         <v>201</v>
       </c>
       <c r="B197" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C197">
         <v>0.48799999999999999</v>
@@ -10915,7 +8968,7 @@
         <v>202</v>
       </c>
       <c r="B198" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C198">
         <v>0.51100000000000001</v>
@@ -10956,7 +9009,7 @@
         <v>203</v>
       </c>
       <c r="B199" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C199">
         <v>0.40500000000000003</v>
@@ -11035,7 +9088,7 @@
         <v>205</v>
       </c>
       <c r="B201" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C201">
         <v>0.7</v>
@@ -11076,7 +9129,7 @@
         <v>207</v>
       </c>
       <c r="B202" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C202">
         <v>0.46</v>
@@ -11122,6 +9175,5 @@
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>